--- a/pred_ohlcv/54_21/2020-01-12 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 VET ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-4375547.5621</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-4260152.8449</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-4277339.0951</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-4256502.127499999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-4304605.302599999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-4286828.166099999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-4320733.394699999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-4276236.207799999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-5999568.081836935</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-5999568.081836935</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-5999568.081836935</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-6571887.821336935</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-6571887.821336935</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-6571887.821336935</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-6571387.821336935</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-6571287.821336935</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-6548977.842336935</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-6513187.842536935</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-6518607.842436935</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-6336155.374736935</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-6593474.949036935</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-6422315.607236936</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-6435997.711836936</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-6430079.747236936</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-6324897.825874845</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-12 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 VET ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-4375547.5621</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-4487969.5621</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-4250941.1481</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-4166477.354</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-4260152.8449</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-4277339.0951</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-4256502.127499999</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-4304605.302599999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-4286828.166099999</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-4320733.394699999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-4276236.207799999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-5999568.081836935</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-5999568.081836935</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-5999568.081836935</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-6571887.821336935</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-6571887.821336935</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-6571887.821336935</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-6571387.821336935</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-6571287.821336935</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-6548977.842336935</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-6529447.842336935</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-6513187.842536935</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-6518607.842436935</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-6336155.374736935</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-6593474.949036935</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-6422315.607236936</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-6435997.711836936</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-6430079.747236936</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-6431015.332136936</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-6280741.249936936</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-6280741.249936936</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-6280741.249936936</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-6280741.249936936</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-6280741.249936936</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-6316955.921236936</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-6300726.182674845</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-6324897.825874845</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-6324897.825874845</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-6324897.825874845</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
